--- a/docs/PTA2_DDC_80/PTA2_DDC_80_07.08.24_output.xlsx
+++ b/docs/PTA2_DDC_80/PTA2_DDC_80_07.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L100"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731781917.921139</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731781921.01947</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731781917.921139.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731781921.01947.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>279.11</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>278.15</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.9600000000000364</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-0.34</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731781921.1770496</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731781923.7222881</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731781921.1770496.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731781923.7222881.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>278.68</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>278.42</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.2599999999999909</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731781926.3318634</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731781929.771511</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731781926.3318634.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731781929.771511.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>279.67</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>280.3</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.6299999999999955</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -695,95 +729,107 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731781930.814666</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731781930.814666.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731781930.814666.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>281.5</v>
       </c>
-      <c r="J6" t="n">
-        <v>281.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>281.39</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.1100000000000136</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731781931.87044</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731781935.6943705</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731781931.87044.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731781935.6943705.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>128.54</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>127.12</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-1.419999999999987</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-1.1</v>
       </c>
     </row>
@@ -791,51 +837,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731781936.673442</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731781938.2930307</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731781936.673442.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731781938.2930307.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>127.84</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>127.28</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.5600000000000023</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -843,51 +895,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731781941.0014064</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731781942.7835255</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731781941.0014064.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731781942.7835255.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>128.37</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>127.93</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.4399999999999977</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -895,95 +953,107 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731781945.5081933</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731781945.5081933.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731781945.5081933.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>128.5</v>
       </c>
-      <c r="J10" t="n">
-        <v>128.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>128.61</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-0.1100000000000136</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731781948.4852</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731781951.2431781</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731781948.4852.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731781951.2431781.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>6383.5</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>6379.5</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-4</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -991,51 +1061,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731781951.3183882</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731781953.7799816</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731781951.3183882.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731781953.7799816.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>6399.5</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>6397.5</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>2</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -1043,51 +1119,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731781954.248357</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731781955.3226347</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731781954.248357.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731781955.3226347.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>6378.5</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>6400</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>21.5</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -1095,51 +1177,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731781956.6969612</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731781960.457082</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731781956.6969612.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731781960.457082.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>6414.5</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>6449</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-34.5</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-0.54</v>
       </c>
     </row>
@@ -1147,95 +1235,107 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731781961.6773849</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731781961.6773849.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731781961.6773849.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>6485</v>
       </c>
-      <c r="J15" t="n">
-        <v>6485</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>6480.5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731781963.7667282</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731781965.2927153</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731781963.7667282.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731781965.2927153.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>493</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>493</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1243,51 +1343,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731781966.7199514</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731781968.0408924</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731781966.7199514.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731781968.0408924.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>493.65</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>495.85</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-2.200000000000045</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>-0.45</v>
       </c>
     </row>
@@ -1295,51 +1401,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731781971.276577</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731781974.993971</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731781971.276577.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731781974.993971.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>498.95</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>501.8</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-2.850000000000023</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>-0.5700000000000001</v>
       </c>
     </row>
@@ -1347,95 +1459,107 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731781976.9979718</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731781976.9979718.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731781976.9979718.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>504.4</v>
       </c>
-      <c r="J19" t="n">
-        <v>504.4</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>503.8</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.5999999999999659</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731781977.8315644</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731781981.687264</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731781977.8315644.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731781981.687264.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>225.14</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>223.83</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-1.309999999999974</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-0.58</v>
       </c>
     </row>
@@ -1443,51 +1567,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731781981.7338805</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731781982.066992</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731781981.7338805.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731781982.066992.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>224.2</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>223.3</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.8999999999999773</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -1495,51 +1625,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731781982.1974673</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731781982.4733403</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731781982.1974673.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731781982.4733403.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>224.66</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>223.63</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>1.030000000000001</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -1547,51 +1683,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731781986.6114745</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731781989.2772152</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731781986.6114745.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731781989.2772152.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>224.68</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>225.01</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-0.3299999999999841</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -1599,51 +1741,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731781990.2813797</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731781990.9503555</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731781990.2813797.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731781990.9503555.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>224.81</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>225.62</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.8100000000000023</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -1651,95 +1799,107 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731781991.5364265</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731781991.5364265.png</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731781991.5364265.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>226.42</v>
       </c>
-      <c r="J25" t="n">
-        <v>226.42</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>225.97</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.4499999999999886</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731781992.7243917</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731781996.010382</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731781992.7243917.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731781996.010382.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1002</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>1000</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-2</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -1747,51 +1907,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731781996.398535</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731781997.2450037</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731781996.398535.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731781997.2450037.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>1002.8</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>1001.8</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1799,51 +1965,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731781997.3813407</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731781997.90666</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731781997.3813407.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731781997.90666.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>1005.6</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>1002.8</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>2.800000000000068</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -1851,51 +2023,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731781999.4564</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731782000.0469189</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731781999.4564.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731782000.0469189.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>1001.8</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>1004.6</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>2.800000000000068</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -1903,51 +2081,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731782000.4119198</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731782003.9912992</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731782000.4119198.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731782003.9912992.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>1006</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>1006.8</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-0.7999999999999545</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -1955,51 +2139,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731782005.1293783</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731782005.3351192</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731782005.1293783.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731782005.3351192.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>1006.8</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>1009.6</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>2.800000000000068</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -2007,95 +2197,107 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731782006.0057201</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731782006.0057201.png</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731782006.0057201.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>1011.8</v>
       </c>
-      <c r="J32" t="n">
-        <v>1011.8</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1011.2</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.5999999999999091</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731782007.2627456</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731782009.3707464</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/CNY1731782007.2627456.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/CNY1731782009.3707464.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>11.853</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>11.859</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.006000000000000227</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -2103,51 +2305,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731782009.6256354</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731782009.954798</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/CNY1731782009.6256354.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/CNY1731782009.954798.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>11.834</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>11.854</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.01999999999999957</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -2155,51 +2363,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731782010.2201023</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731782018.4829037</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/CNY1731782010.2201023.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/CNY1731782018.4829037.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>11.867</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>11.914</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-0.04699999999999882</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>-0.4</v>
       </c>
     </row>
@@ -2207,51 +2421,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731782018.604807</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731782021.3103337</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/CNY1731782018.604807.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/CNY1731782021.3103337.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>11.902</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>11.894</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-0.007999999999999119</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -2259,95 +2479,107 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731782021.7982657</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731782021.7982657.png</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731782021.7982657.png</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>11.899</v>
       </c>
-      <c r="J37" t="n">
-        <v>11.899</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>11.9</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.001000000000001222</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731782022.0724225</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731782025.8590636</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731782022.0724225.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731782025.8590636.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>124.68</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>123.24</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-1.440000000000012</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>-1.15</v>
       </c>
     </row>
@@ -2355,51 +2587,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731782025.9160898</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731782028.0296938</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731782025.9160898.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731782028.0296938.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>123.28</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>123.04</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.2399999999999949</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -2407,51 +2645,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731782028.3284376</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731782030.7749586</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731782028.3284376.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731782030.7749586.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>122.92</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>123.08</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.1599999999999966</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -2459,51 +2703,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731782030.9119136</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731782031.0904484</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731782030.9119136.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731782031.0904484.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>123.08</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>122.86</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.2199999999999989</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -2511,51 +2761,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731782033.0546496</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731782034.1391442</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731782033.0546496.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731782034.1391442.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>123.38</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>123.08</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.2999999999999972</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -2563,51 +2819,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731782034.2500093</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731782034.601195</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731782034.2500093.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731782034.601195.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>123.58</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>123.24</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.3400000000000034</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -2615,95 +2877,107 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731782035.525439</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731782035.525439.png</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731782035.525439.png</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>123.72</v>
       </c>
-      <c r="J44" t="n">
-        <v>123.72</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>124.14</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-0.4200000000000017</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731782036.948779</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731782040.5274408</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731782036.948779.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731782040.5274408.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>159.7</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>158.78</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-0.9199999999999875</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>-0.58</v>
       </c>
     </row>
@@ -2711,51 +2985,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731782040.8171422</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731782042.3149881</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731782040.8171422.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731782042.3149881.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>159.22</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>158.84</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.3799999999999955</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -2763,51 +3043,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731782044.9900637</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731782046.992631</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731782044.9900637.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731782046.992631.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>159.9</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>159.7</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.2000000000000171</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -2815,51 +3101,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731782048.232598</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731782048.979229</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731782048.232598.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731782048.979229.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>160.4</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>160.1</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.3000000000000114</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -2867,51 +3159,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731782049.2455072</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731782049.2933407</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731782049.2455072.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731782049.2933407.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>160.06</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>160.08</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.02000000000001023</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -2919,51 +3217,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731782049.6607735</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731782050.2654638</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731782049.6607735.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731782050.2654638.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>159.5</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>160.06</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.5600000000000023</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -2971,95 +3275,107 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731782050.7398515</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731782050.7398515.png</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731782050.7398515.png</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>160.76</v>
       </c>
-      <c r="J51" t="n">
-        <v>160.76</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>160.34</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.4199999999999875</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731782051.9776804</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731782056.3143013</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731782051.9776804.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731782056.3143013.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>49.195</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>48.54</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-0.6550000000000011</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>-1.33</v>
       </c>
     </row>
@@ -3067,51 +3383,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731782060.1936457</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731782060.622396</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731782060.1936457.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731782060.622396.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>48.675</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>48.61</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.06499999999999773</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -3119,51 +3441,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731782061.7521162</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731782062.0546536</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731782061.7521162.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731782062.0546536.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>48.88</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>48.675</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.2050000000000054</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -3171,51 +3499,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731782063.0897431</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731782064.3945816</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731782063.0897431.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731782064.3945816.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>48.885</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>48.8</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.08500000000000085</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -3223,95 +3557,107 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731782065.032804</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731782065.032804.png</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731782065.032804.png</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>49.02</v>
       </c>
-      <c r="J56" t="n">
-        <v>49.02</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>49.19</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-0.1699999999999946</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.35</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731782067.7544246</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731782070.1703987</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731782067.7544246.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731782070.1703987.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>1361.2</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>1362</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.7999999999999545</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -3319,51 +3665,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731782070.7193558</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731782072.8237464</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731782070.7193558.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731782072.8237464.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>1362</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>1367.2</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-5.200000000000045</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>-0.38</v>
       </c>
     </row>
@@ -3371,51 +3723,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731782075.072729</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731782076.63042</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731782075.072729.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731782076.63042.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>1373.4</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>1372.2</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>1.200000000000045</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -3423,51 +3781,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731782077.8213968</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731782079.1873212</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731782077.8213968.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731782079.1873212.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>1378</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>1376.8</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>1.200000000000045</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -3475,95 +3839,107 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731782079.757604</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731782079.757604.png</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731782079.757604.png</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>1383.2</v>
       </c>
-      <c r="J61" t="n">
-        <v>1383.2</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>1382.4</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.7999999999999545</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731782082.337663</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731782085.398248</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731782082.337663.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731782085.398248.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>59.75</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>59.7</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-0.04999999999999716</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -3571,51 +3947,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731782085.647992</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731782087.8958435</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731782085.647992.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731782087.8958435.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>60.19</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>59.96</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.2299999999999969</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -3623,51 +4005,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731782088.3214717</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731782088.7115266</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731782088.3214717.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731782088.7115266.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>59.91</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>60.17</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.2600000000000051</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -3675,51 +4063,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731782090.3389702</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731782093.2464266</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731782090.3389702.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731782093.2464266.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>60.2</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>60.7</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>-0.5</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>-0.83</v>
       </c>
     </row>
@@ -3727,95 +4121,107 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731782095.9121351</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731782095.9121351.png</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731782095.9121351.png</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>60.65</v>
       </c>
-      <c r="J66" t="n">
-        <v>60.65</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>60.67</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.02000000000000313</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731782096.6224902</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731782099.0149555</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731782096.6224902.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731782099.0149555.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>95.90000000000001</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>95.76000000000001</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>-0.1400000000000006</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -3823,51 +4229,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731782100.1782143</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731782102.9751751</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731782100.1782143.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731782102.9751751.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>95.84</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>96.26000000000001</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>-0.4200000000000017</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>-0.44</v>
       </c>
     </row>
@@ -3875,51 +4287,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731782105.1417525</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731782108.3335488</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731782105.1417525.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731782108.3335488.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>96.93000000000001</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>97.70999999999999</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>-0.7799999999999869</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>-0.8</v>
       </c>
     </row>
@@ -3927,51 +4345,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731782109.8245668</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731782110.9230464</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731782109.8245668.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731782110.9230464.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>98.38</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>98.11</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.269999999999996</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -3979,51 +4403,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731782111.8970966</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731782114.8896039</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/SELG1731782111.8970966.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/SELG1731782114.8896039.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>55.38</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>55.42</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.03999999999999915</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -4031,51 +4461,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731782115.4925306</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731782120.010928</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/SELG1731782115.4925306.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/SELG1731782120.010928.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>55.59</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>55.71</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>-0.1199999999999974</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -4083,95 +4519,107 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731782120.4823227</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731782120.4823227.png</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731782120.4823227.png</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>56.05</v>
       </c>
-      <c r="J73" t="n">
-        <v>56.05</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0</v>
-      </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>56.31</v>
+      </c>
+      <c r="M73" t="n">
+        <v>-0.2600000000000051</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-0.46</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731782124.2762234</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731782126.2643223</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731782124.2762234.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731782126.2643223.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>143.44</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>142.28</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-1.159999999999997</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>-0.8099999999999999</v>
       </c>
     </row>
@@ -4179,51 +4627,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731782127.9492183</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731782134.951225</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731782127.9492183.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731782134.951225.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>143.2</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>144.6</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>-1.400000000000006</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>-0.98</v>
       </c>
     </row>
@@ -4231,51 +4685,57 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731782137.4403489</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731782140.0569377</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731782137.4403489.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731782140.0569377.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>19.68</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>19.686</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>0.006000000000000227</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -4283,51 +4743,57 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731782141.03122</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731782143.1472147</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731782141.03122.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731782143.1472147.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>19.755</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>19.7</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0.05499999999999972</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -4335,51 +4801,57 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731782143.795484</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731782145.0261507</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731782143.795484.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731782145.0261507.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>19.684</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>19.745</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.06099999999999994</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -4387,51 +4859,57 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731782145.160974</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731782147.4578142</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731782145.160974.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731782147.4578142.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>19.801</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>19.735</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.06599999999999895</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -4439,51 +4917,57 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731782147.7395067</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731782149.5157843</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731782147.7395067.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731782149.5157843.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>19.889</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>19.849</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.03999999999999915</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -4491,95 +4975,107 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731782150.0285468</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731782150.0285468.png</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731782150.0285468.png</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>20.006</v>
       </c>
-      <c r="J81" t="n">
-        <v>20.006</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0</v>
-      </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>20.265</v>
+      </c>
+      <c r="M81" t="n">
+        <v>-0.2590000000000003</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-1.29</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731782152.591287</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731782155.5965083</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731782152.591287.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731782155.5965083.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>667.75</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>665.3</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>-2.450000000000045</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>-0.37</v>
       </c>
     </row>
@@ -4587,51 +5083,57 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731782155.758023</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731782158.2631054</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731782155.758023.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731782158.2631054.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>666.6</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>667.2</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>-0.6000000000000227</v>
       </c>
-      <c r="L83" t="n">
+      <c r="N83" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -4639,51 +5141,57 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731782158.7807925</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731782160.04406</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731782158.7807925.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731782160.04406.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>666.4</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>668.05</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>1.649999999999977</v>
       </c>
-      <c r="L84" t="n">
+      <c r="N84" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -4691,51 +5199,57 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731782160.8711982</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731782161.3379335</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731782160.8711982.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731782161.3379335.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>669.35</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>668.7</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>0.6499999999999773</v>
       </c>
-      <c r="L85" t="n">
+      <c r="N85" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -4743,51 +5257,57 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731782163.4486012</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731782164.262767</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731782163.4486012.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731782164.262767.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>671.65</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>669.15</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>2.5</v>
       </c>
-      <c r="L86" t="n">
+      <c r="N86" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -4795,51 +5315,57 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731782164.3266652</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731782164.6924787</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731782164.3266652.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731782164.6924787.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>667.85</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>669.85</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>2</v>
       </c>
-      <c r="L87" t="n">
+      <c r="N87" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -4847,95 +5373,107 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731782165.4874845</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731782165.4874845.png</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731782165.4874845.png</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>672.6</v>
       </c>
-      <c r="J88" t="n">
-        <v>672.6</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0</v>
-      </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>674.5</v>
+      </c>
+      <c r="M88" t="n">
+        <v>-1.899999999999977</v>
+      </c>
+      <c r="N88" t="n">
+        <v>-0.28</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731782166.9445865</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731782169.162163</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731782166.9445865.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731782169.162163.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>147.2</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>147.16</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>-0.03999999999999204</v>
       </c>
-      <c r="L89" t="n">
+      <c r="N89" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -4943,51 +5481,57 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731782171.040916</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731782173.4915664</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731782171.040916.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731782173.4915664.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>147.35</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>146.6</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>0.75</v>
       </c>
-      <c r="L90" t="n">
+      <c r="N90" t="n">
         <v>0.51</v>
       </c>
     </row>
@@ -4995,51 +5539,57 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731782173.8638124</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731782174.8487468</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731782173.8638124.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731782174.8487468.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>146.34</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>147.39</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>1.049999999999983</v>
       </c>
-      <c r="L91" t="n">
+      <c r="N91" t="n">
         <v>0.72</v>
       </c>
     </row>
@@ -5047,95 +5597,107 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731782175.7885253</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731782175.7885253.png</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731782175.7885253.png</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>147.92</v>
       </c>
-      <c r="J92" t="n">
-        <v>147.92</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0</v>
-      </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>155.8</v>
+      </c>
+      <c r="M92" t="n">
+        <v>-7.880000000000024</v>
+      </c>
+      <c r="N92" t="n">
+        <v>-5.33</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731782181.8533607</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731782182.6464174</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/FEES1731782181.8533607.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/FEES1731782182.6464174.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>0.09506000000000001</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>0.09552000000000001</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>0.0004600000000000021</v>
       </c>
-      <c r="L93" t="n">
+      <c r="N93" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -5143,51 +5705,57 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731782185.7806213</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731782188.209132</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/FEES1731782185.7806213.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/FEES1731782188.209132.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>0.09578</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>0.09574000000000001</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>3.999999999999837e-05</v>
       </c>
-      <c r="L94" t="n">
+      <c r="N94" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -5195,51 +5763,57 @@
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731782189.544074</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731782191.8844562</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/FEES1731782189.544074.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/FEES1731782191.8844562.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>0.09648000000000001</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>0.09678</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>-0.0002999999999999947</v>
       </c>
-      <c r="L95" t="n">
+      <c r="N95" t="n">
         <v>-0.31</v>
       </c>
     </row>
@@ -5247,95 +5821,107 @@
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731782195.3534262</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731782195.3534262.png</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731782195.3534262.png</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>0.09778000000000001</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.09778000000000001</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0</v>
-      </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>0.09752</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.0002600000000000102</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731782196.7861562</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1731782200.3816447</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/MXI1731782196.7861562.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/MXI1731782200.3816447.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>2893.05</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>2881.9</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>-11.15000000000009</v>
       </c>
-      <c r="L97" t="n">
+      <c r="N97" t="n">
         <v>-0.39</v>
       </c>
     </row>
@@ -5343,51 +5929,57 @@
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731782200.6496346</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731782202.966083</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/MXI1731782200.6496346.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/MXI1731782202.966083.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>2887</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>2884</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>3</v>
       </c>
-      <c r="L98" t="n">
+      <c r="N98" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -5395,51 +5987,57 @@
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731782205.441916</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1731782208.1069167</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/MXI1731782205.441916.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/MXI1731782208.1069167.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>2901.8</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>2906</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>-4.199999999999818</v>
       </c>
-      <c r="L99" t="n">
+      <c r="N99" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -5447,44 +6045,50 @@
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1731782209.6342518</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731782209.6342518.png</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731782209.6342518.png</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>2919.55</v>
       </c>
-      <c r="J100" t="n">
-        <v>2919.55</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0</v>
-      </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>2919.65</v>
+      </c>
+      <c r="M100" t="n">
+        <v>-0.09999999999990905</v>
+      </c>
+      <c r="N100" t="n">
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
@@ -5545,19 +6149,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.749999999999886</v>
+        <v>1.849999999999909</v>
       </c>
       <c r="C2" t="n">
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5357142857142695</v>
+        <v>0.2642857142857013</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.28</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">
@@ -5567,19 +6171,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.180000000000021</v>
+        <v>-0.6000000000000227</v>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.02571428571428872</v>
+        <v>-0.08571428571428896</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1299999999999999</v>
+        <v>-0.4699999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.02</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -5589,19 +6193,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5400000000000489</v>
+        <v>0.9600000000000364</v>
       </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07714285714286413</v>
+        <v>0.1371428571428623</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3400000000000001</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="5">
@@ -5611,19 +6215,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.60000000000025</v>
+        <v>7.200000000000159</v>
       </c>
       <c r="C5" t="n">
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9428571428571786</v>
+        <v>1.028571428571451</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.7199999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6">
@@ -5633,19 +6237,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.227999999999998</v>
+        <v>-0.03100000000000236</v>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03799999999999967</v>
+        <v>-0.00516666666666706</v>
       </c>
       <c r="E6" t="n">
-        <v>1.15</v>
+        <v>-0.1400000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>0.19</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="7">
@@ -5655,19 +6259,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.100000000000023</v>
+        <v>1.550000000000011</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1833333333333371</v>
+        <v>0.2583333333333352</v>
       </c>
       <c r="E7" t="n">
-        <v>0.49</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="8">
@@ -5677,19 +6281,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2</v>
+        <v>-1.200000000000045</v>
       </c>
       <c r="C8" t="n">
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.4</v>
+        <v>-0.2400000000000091</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.14</v>
+        <v>-0.08000000000000002</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="9">
@@ -5699,16 +6303,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.02899999999999814</v>
+        <v>-0.02999999999999936</v>
       </c>
       <c r="C9" t="n">
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.005799999999999628</v>
+        <v>-0.005999999999999872</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.2500000000000001</v>
+        <v>-0.2600000000000001</v>
       </c>
       <c r="F9" t="n">
         <v>-0.05</v>
@@ -5721,19 +6325,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-15</v>
+        <v>-10.5</v>
       </c>
       <c r="C10" t="n">
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>-3</v>
+        <v>-2.1</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2300000000000001</v>
+        <v>-0.1600000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.05</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="11">
@@ -5743,19 +6347,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.2999999999999972</v>
+        <v>-0.4699999999999918</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.05999999999999943</v>
+        <v>-0.09399999999999835</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.6099999999999999</v>
+        <v>-0.96</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.12</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="12">
@@ -5765,19 +6369,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.05999999999999517</v>
+        <v>-0.03999999999999204</v>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.01199999999999903</v>
+        <v>-0.007999999999998408</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.09999999999999998</v>
+        <v>-0.06999999999999998</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="13">
@@ -5787,19 +6391,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-5.050000000000068</v>
+        <v>-4.450000000000102</v>
       </c>
       <c r="C13" t="n">
         <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.262500000000017</v>
+        <v>-1.112500000000026</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.02</v>
+        <v>-0.9</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.26</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="14">
@@ -5831,19 +6435,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.330000000000041</v>
+        <v>-1.220000000000027</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.3325000000000102</v>
+        <v>-0.3050000000000068</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.48</v>
+        <v>-0.4399999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.12</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="16">
@@ -5853,19 +6457,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.759999999999991</v>
+        <v>-6.120000000000033</v>
       </c>
       <c r="C16" t="n">
         <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4399999999999977</v>
+        <v>-1.530000000000008</v>
       </c>
       <c r="E16" t="n">
-        <v>1.2</v>
+        <v>-4.13</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3</v>
+        <v>-1.03</v>
       </c>
     </row>
     <row r="17">
@@ -5875,13 +6479,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-12.34999999999991</v>
+        <v>-12.44999999999982</v>
       </c>
       <c r="C17" t="n">
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>-3.087499999999977</v>
+        <v>-3.112499999999955</v>
       </c>
       <c r="E17" t="n">
         <v>-0.4299999999999999</v>
@@ -5897,19 +6501,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.4199999999999875</v>
+        <v>-0.5300000000000011</v>
       </c>
       <c r="C18" t="n">
         <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1049999999999969</v>
+        <v>-0.1325000000000003</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.3199999999999999</v>
+        <v>-0.4099999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.08</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="19">
@@ -5919,19 +6523,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0002000000000000057</v>
+        <v>0.000460000000000016</v>
       </c>
       <c r="C19" t="n">
         <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>5.000000000000143e-05</v>
+        <v>0.000115000000000004</v>
       </c>
       <c r="E19" t="n">
-        <v>0.21</v>
+        <v>0.48</v>
       </c>
       <c r="F19" t="n">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="20">
@@ -5941,19 +6545,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.07999999999999829</v>
+        <v>-0.3400000000000034</v>
       </c>
       <c r="C20" t="n">
         <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.0266666666666661</v>
+        <v>-0.1133333333333345</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.15</v>
+        <v>-0.61</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.05</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="21">
